--- a/app/Data/Dry Goods.xlsx
+++ b/app/Data/Dry Goods.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\Lino\Platform\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\Lino\Website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05EAAEB3-2599-4148-A785-177F7EA364C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EFBBDC3-A172-4080-B510-FC07A61297D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="15" windowWidth="29040" windowHeight="15840" xr2:uid="{E79BA597-DAFC-4F00-B045-C2C726BA4A03}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="232">
   <si>
     <t xml:space="preserve">SKU NUMBER </t>
   </si>
@@ -137,9 +137,6 @@
     <t>300g</t>
   </si>
   <si>
-    <t>SUGAR</t>
-  </si>
-  <si>
     <t xml:space="preserve">Light Brown Soft Sugar </t>
   </si>
   <si>
@@ -176,29 +173,6 @@
     <t>16kg</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>OATS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">Porridge Oat Flakes Rolled  </t>
   </si>
   <si>
@@ -281,12 +255,492 @@
   </si>
   <si>
     <t>Macarrao GR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CEREALS &amp; OATS </t>
+  </si>
+  <si>
+    <t>CORNFLAKES BULK KELLOGGS 10kg</t>
+  </si>
+  <si>
+    <t>RICE KRISPIES BULK KELLOGGS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KELLOGGS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">in the attached file </t>
+  </si>
+  <si>
+    <t>ALL BRAN KELLOGGS</t>
+  </si>
+  <si>
+    <t>700g</t>
+  </si>
+  <si>
+    <t>4x700g</t>
+  </si>
+  <si>
+    <t>ALL BRAN KELLOGGS PORTION PACKS</t>
+  </si>
+  <si>
+    <t>40x45g</t>
+  </si>
+  <si>
+    <t>ALPEN MUESLI NO ADDED SUGAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALPEN </t>
+  </si>
+  <si>
+    <t>6x1.1kg</t>
+  </si>
+  <si>
+    <t>1.1kg</t>
+  </si>
+  <si>
+    <t>1x10kg</t>
+  </si>
+  <si>
+    <t>10kg</t>
+  </si>
+  <si>
+    <t>ALPEN MUESLI ORIGINAL</t>
+  </si>
+  <si>
+    <t>ALPEN PORTION NO ADDED SUGAR SACHET</t>
+  </si>
+  <si>
+    <t>30x41g</t>
+  </si>
+  <si>
+    <t>41g</t>
+  </si>
+  <si>
+    <t>ALPEN PORTION SACHETS</t>
+  </si>
+  <si>
+    <t>30x50g</t>
+  </si>
+  <si>
+    <t>50g</t>
+  </si>
+  <si>
+    <t>BRAN FLAKES BAG PACK KELLOGGS</t>
+  </si>
+  <si>
+    <t>4x500g</t>
+  </si>
+  <si>
+    <t>BRAN FLAKES HARVEST HOME</t>
+  </si>
+  <si>
+    <t>9x500g</t>
+  </si>
+  <si>
+    <t>NESTLE</t>
+  </si>
+  <si>
+    <t>BRAN FLAKES KELLOGGS PORTION PACKS</t>
+  </si>
+  <si>
+    <t>40x40g</t>
+  </si>
+  <si>
+    <t>40g</t>
+  </si>
+  <si>
+    <t>CHEERIOS NESTLE MULTIGRAIN</t>
+  </si>
+  <si>
+    <t>10x600g</t>
+  </si>
+  <si>
+    <t>600g</t>
+  </si>
+  <si>
+    <t>COCO POPS BIG BOX KELLOGGS</t>
+  </si>
+  <si>
+    <t>12x720g</t>
+  </si>
+  <si>
+    <t>720g</t>
+  </si>
+  <si>
+    <t>COCO POPS PACK CATERING KELLOGG</t>
+  </si>
+  <si>
+    <t>COCO POPS PORTIONS KELLOGGS</t>
+  </si>
+  <si>
+    <t>40x35g</t>
+  </si>
+  <si>
+    <t>35g</t>
+  </si>
+  <si>
+    <t>COOKIE CRISP CEREAL NESTLE</t>
+  </si>
+  <si>
+    <t>7x500g</t>
+  </si>
+  <si>
+    <t>CORNFLAKES FROSTED HERITAGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HERITAGE </t>
+  </si>
+  <si>
+    <t>CORNFLAKES GOLDEN HARVEST HOME</t>
+  </si>
+  <si>
+    <t>CORNFLAKES KELLOGGS CATERING PACK</t>
+  </si>
+  <si>
+    <t>8x500g</t>
+  </si>
+  <si>
+    <t>CORNFLAKES KELLOGGS FAMILY PACK</t>
+  </si>
+  <si>
+    <t>CORNFLAKES PORTION KELLOGGS</t>
+  </si>
+  <si>
+    <t>40x24g</t>
+  </si>
+  <si>
+    <t>24g</t>
+  </si>
+  <si>
+    <t>CRUNCHY GRANOLA KELLOGGS</t>
+  </si>
+  <si>
+    <t>4x1.5kg</t>
+  </si>
+  <si>
+    <t>1.5kg</t>
+  </si>
+  <si>
+    <t>CRUNCHY NUT CORNFLAKES KELLOGGS</t>
+  </si>
+  <si>
+    <t>CRUNCHY NUT CORNFLAKES PORTION KELL</t>
+  </si>
+  <si>
+    <t>FROSTIES KELLOGGS CATERPACK</t>
+  </si>
+  <si>
+    <t>12x1kg</t>
+  </si>
+  <si>
+    <t>FROSTIES KELLOGGS PORTION</t>
+  </si>
+  <si>
+    <t>FRUIT &amp; FIBRE HERITAGE</t>
+  </si>
+  <si>
+    <t>10x500g</t>
+  </si>
+  <si>
+    <t>FRUIT &amp; FIBRE KELLOGGS</t>
+  </si>
+  <si>
+    <t>FRUIT &amp; FIBRE PORTIONS KELLOGGS</t>
+  </si>
+  <si>
+    <t>45g</t>
+  </si>
+  <si>
+    <t>MIX PACK KELLOGGS PORTION 5 top</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7x5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 different packs </t>
+  </si>
+  <si>
+    <t>NESTLE CURIOUSLY CINNAMON CEREAL</t>
+  </si>
+  <si>
+    <t>7x375g</t>
+  </si>
+  <si>
+    <t>375g</t>
+  </si>
+  <si>
+    <t>RICE KRISPES CATERING KELLOGGS</t>
+  </si>
+  <si>
+    <t>4x400g</t>
+  </si>
+  <si>
+    <t>400g</t>
+  </si>
+  <si>
+    <t>RICE KRISPES KELLOGGS BIG BOX</t>
+  </si>
+  <si>
+    <t>12x700g</t>
+  </si>
+  <si>
+    <t>RICE KRISPIES PORTION KELLOGGS</t>
+  </si>
+  <si>
+    <t>40x22g</t>
+  </si>
+  <si>
+    <t>22g</t>
+  </si>
+  <si>
+    <t>SHREDDED WHEAT BISCUITS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8x16 </t>
+  </si>
+  <si>
+    <t>16 biscuits</t>
+  </si>
+  <si>
+    <t>SHREDDIES NESTLE</t>
+  </si>
+  <si>
+    <t>12x675g</t>
+  </si>
+  <si>
+    <t>675g</t>
+  </si>
+  <si>
+    <t>SHREDDIES NESTLE COCO CHOCOLATE</t>
+  </si>
+  <si>
+    <t>9x465g</t>
+  </si>
+  <si>
+    <t>465g</t>
+  </si>
+  <si>
+    <t>SPECIAL K KELLOGGS CATER PACK</t>
+  </si>
+  <si>
+    <t>SPECIAL K KELLOGGS PORTION PACKS</t>
+  </si>
+  <si>
+    <t>40x30g</t>
+  </si>
+  <si>
+    <t>30g</t>
+  </si>
+  <si>
+    <t>SUGAR PUFFS HONEY MONSTER</t>
+  </si>
+  <si>
+    <t>10x625g</t>
+  </si>
+  <si>
+    <t>625g</t>
+  </si>
+  <si>
+    <t>VARIETY PACK PORTION KELLOGGS</t>
+  </si>
+  <si>
+    <t>6x8</t>
+  </si>
+  <si>
+    <t>8 different packs</t>
+  </si>
+  <si>
+    <t>WEETABIX CATERING A-PACK BISCUITS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WEETABIX </t>
+  </si>
+  <si>
+    <t>6x4x12</t>
+  </si>
+  <si>
+    <t>4x12</t>
+  </si>
+  <si>
+    <t>WEETABIX ONE BISCUIT PORTION IW 'C'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96x one </t>
+  </si>
+  <si>
+    <t xml:space="preserve">individual </t>
+  </si>
+  <si>
+    <t>WEETABIX TWO BISCUIT PORTION IW 'B'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48x 2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 biscuits/pack </t>
+  </si>
+  <si>
+    <t>MUESLI FRUIT &amp; FIBRE SWISS STYLE</t>
+  </si>
+  <si>
+    <t>6x2kg</t>
+  </si>
+  <si>
+    <t>2kg</t>
+  </si>
+  <si>
+    <t>MUESLI LUXURY KELLOGGS BAG PACK</t>
+  </si>
+  <si>
+    <t>4x2kg</t>
+  </si>
+  <si>
+    <t>PORRIDGE OATFLAKES DRY CATERING BAG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4x3kg </t>
+  </si>
+  <si>
+    <t>READY BREK PORRIDGE WEETABIX</t>
+  </si>
+  <si>
+    <t>6x450g</t>
+  </si>
+  <si>
+    <t>450g</t>
+  </si>
+  <si>
+    <t>SUGAR &amp; SWEETNER</t>
+  </si>
+  <si>
+    <t>BROWN SUGAR LIGHT MUSCOVADO</t>
+  </si>
+  <si>
+    <t>BILLINGTONS</t>
+  </si>
+  <si>
+    <t>BROWN SUGAR DARK MUSCOVADO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BILLINGTONS </t>
+  </si>
+  <si>
+    <t>GRANULATED SUGAR 1kg BAGS</t>
+  </si>
+  <si>
+    <t>VENDING SUGAR POLLY PILLOW</t>
+  </si>
+  <si>
+    <t>WHITE SUGAR STICKS GRANULATED</t>
+  </si>
+  <si>
+    <t>1000x3g</t>
+  </si>
+  <si>
+    <t>1000 sticks</t>
+  </si>
+  <si>
+    <t>ICING SUGAR BAGS TATE &amp; LYLE</t>
+  </si>
+  <si>
+    <t>ICING SUGAR CARTONS TATE &amp;LYLE</t>
+  </si>
+  <si>
+    <t>SWEETENER SACHET ZUCRO ASR</t>
+  </si>
+  <si>
+    <t>ZUCRO</t>
+  </si>
+  <si>
+    <t>1000x 0.5g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1000 sachets </t>
+  </si>
+  <si>
+    <t>SWEETEX TABLETS SWEETENERS</t>
+  </si>
+  <si>
+    <t>SWEETEX</t>
+  </si>
+  <si>
+    <t>6x600</t>
+  </si>
+  <si>
+    <t>600 tablets</t>
+  </si>
+  <si>
+    <t>RICE PORRIDGE CHICKEN MAMA</t>
+  </si>
+  <si>
+    <t>RICE PORRIDGE PORK  MAMA</t>
+  </si>
+  <si>
+    <t>72x50g</t>
+  </si>
+  <si>
+    <t>CHICKEN/MUSHROOM POT NOODLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POT NOODLE </t>
+  </si>
+  <si>
+    <t>12x90g</t>
+  </si>
+  <si>
+    <t>90g</t>
+  </si>
+  <si>
+    <t>CHOW MEIN POT NOODLE</t>
+  </si>
+  <si>
+    <t>BEEF &amp; TOMATO POT NOODLE</t>
+  </si>
+  <si>
+    <t>BRANCA NEVE FINA</t>
+  </si>
+  <si>
+    <t>FLOUR SELF RAISING FINE LADY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FINE LADY </t>
+  </si>
+  <si>
+    <t>6x1.5kg</t>
+  </si>
+  <si>
+    <t>YELLOW LUMP SUGAR SW CHINESE</t>
+  </si>
+  <si>
+    <t>50x400g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LACOS </t>
+  </si>
+  <si>
+    <t>ESTRELINHA</t>
+  </si>
+  <si>
+    <t>28x250g</t>
+  </si>
+  <si>
+    <t>250g</t>
+  </si>
+  <si>
+    <t>PEROLAS</t>
+  </si>
+  <si>
+    <t>36x250g</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;£&quot;#,##0.00"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -311,15 +765,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -327,11 +793,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -340,8 +821,17 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -656,23 +1146,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F7EFACE-673F-430C-88E4-FF15D0FAA111}">
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:K109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="1" max="1" width="21.140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="38.5703125" customWidth="1"/>
     <col min="3" max="3" width="18.140625" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" style="9" customWidth="1"/>
     <col min="5" max="5" width="18.28515625" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" style="9" customWidth="1"/>
     <col min="7" max="7" width="18.28515625" customWidth="1"/>
     <col min="8" max="8" width="18.140625" customWidth="1"/>
-    <col min="9" max="9" width="18" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" customWidth="1"/>
     <col min="10" max="10" width="18.5703125" customWidth="1"/>
     <col min="11" max="11" width="28.5703125" customWidth="1"/>
   </cols>
@@ -687,13 +1177,13 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -727,10 +1217,10 @@
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="9">
         <v>43.89</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="9">
         <v>1.89</v>
       </c>
       <c r="G3" t="s">
@@ -756,10 +1246,10 @@
       <c r="C4">
         <v>1</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="9">
         <v>17.29</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="9">
         <v>0.79</v>
       </c>
       <c r="G4" t="s">
@@ -785,10 +1275,10 @@
       <c r="C5">
         <v>1</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="9">
         <v>8.39</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="9">
         <v>8.39</v>
       </c>
       <c r="G5" t="s">
@@ -814,10 +1304,10 @@
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="9">
         <v>33.39</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="9">
         <v>33.39</v>
       </c>
       <c r="G6" t="s">
@@ -843,10 +1333,10 @@
       <c r="C7">
         <v>1</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="9">
         <v>12.69</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="9">
         <v>1.59</v>
       </c>
       <c r="G7" t="s">
@@ -867,28 +1357,28 @@
         <v>5601286260109</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="9">
         <v>33.99</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="9">
         <v>3.39</v>
       </c>
       <c r="G8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H8" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" t="s">
         <v>38</v>
-      </c>
-      <c r="I8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J8" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -896,22 +1386,22 @@
         <v>5601286211781</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="9">
         <v>32.19</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="9">
         <v>1.69</v>
       </c>
       <c r="G9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I9" t="s">
         <v>15</v>
@@ -925,22 +1415,22 @@
         <v>5601286260215</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="9">
         <v>33.39</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="9">
         <v>2.79</v>
       </c>
       <c r="G10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I10" t="s">
         <v>15</v>
@@ -954,22 +1444,22 @@
         <v>5601286254788</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="9">
         <v>19.29</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="9">
         <v>1.29</v>
       </c>
       <c r="G11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I11" t="s">
         <v>15</v>
@@ -983,22 +1473,22 @@
         <v>5601286251787</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="9">
         <v>27.89</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="9">
         <v>1.89</v>
       </c>
       <c r="G12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I12" t="s">
         <v>15</v>
@@ -1012,22 +1502,22 @@
         <v>5601286220783</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="9">
         <v>27.89</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="9">
         <v>1.89</v>
       </c>
       <c r="G13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I13" t="s">
         <v>15</v>
@@ -1041,22 +1531,22 @@
         <v>5601286270788</v>
       </c>
       <c r="B14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="9">
         <v>29.89</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="9">
         <v>1.49</v>
       </c>
       <c r="G14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I14" t="s">
         <v>15</v>
@@ -1070,22 +1560,22 @@
         <v>5601286260222</v>
       </c>
       <c r="B15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="9">
         <v>26.59</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="9">
         <v>1.39</v>
       </c>
       <c r="G15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I15" t="s">
         <v>15</v>
@@ -1099,22 +1589,22 @@
         <v>5601286222787</v>
       </c>
       <c r="B16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="9">
         <v>27.19</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="9">
         <v>1.59</v>
       </c>
       <c r="G16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H16" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I16" t="s">
         <v>15</v>
@@ -1128,22 +1618,22 @@
         <v>5601286248787</v>
       </c>
       <c r="B17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="9">
         <v>25.59</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="9">
         <v>1.79</v>
       </c>
       <c r="G17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I17" t="s">
         <v>15</v>
@@ -1157,22 +1647,22 @@
         <v>5601286252784</v>
       </c>
       <c r="B18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="9">
         <v>27.89</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="9">
         <v>1.89</v>
       </c>
       <c r="G18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I18" t="s">
         <v>15</v>
@@ -1181,275 +1671,2341 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <v>5010067347180</v>
-      </c>
-      <c r="B21" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21" s="7">
-        <v>26.49</v>
-      </c>
-      <c r="F21" s="7">
-        <v>6.69</v>
-      </c>
-      <c r="G21" t="s">
-        <v>35</v>
-      </c>
-      <c r="H21" t="s">
-        <v>36</v>
-      </c>
-      <c r="I21" t="s">
-        <v>15</v>
-      </c>
-      <c r="J21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
-        <v>5010067333107</v>
-      </c>
-      <c r="B22" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22" s="7">
-        <v>11.19</v>
-      </c>
-      <c r="F22" s="7">
-        <v>1.19</v>
-      </c>
-      <c r="G22" t="s">
-        <v>35</v>
-      </c>
-      <c r="H22" t="s">
-        <v>38</v>
-      </c>
-      <c r="I22" t="s">
-        <v>15</v>
-      </c>
-      <c r="J22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
-        <v>5010067330199</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23" s="7">
-        <v>17.190000000000001</v>
-      </c>
-      <c r="F23" s="7">
-        <v>1.19</v>
-      </c>
-      <c r="G23" t="s">
-        <v>35</v>
-      </c>
-      <c r="H23" t="s">
-        <v>41</v>
-      </c>
-      <c r="I23" t="s">
-        <v>15</v>
-      </c>
-      <c r="J23" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
-        <v>5020387002584</v>
-      </c>
-      <c r="B26" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26" s="7">
-        <v>19.59</v>
-      </c>
-      <c r="F26" s="7">
-        <v>19.59</v>
-      </c>
-      <c r="H26" t="s">
-        <v>44</v>
-      </c>
-      <c r="I26" t="s">
-        <v>15</v>
-      </c>
-      <c r="J26" t="s">
-        <v>45</v>
+    <row r="19" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>18850144210617</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="C19" s="7">
+        <v>1</v>
+      </c>
+      <c r="D19" s="10">
+        <v>51.79</v>
+      </c>
+      <c r="F19" s="10">
+        <v>0.79</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>8850144208204</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="C20" s="7">
+        <v>1</v>
+      </c>
+      <c r="D20" s="10">
+        <v>51.79</v>
+      </c>
+      <c r="F20" s="10">
+        <v>0.79</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <v>5000118203503</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C21" s="7">
+        <v>1</v>
+      </c>
+      <c r="D21" s="10">
+        <v>15.69</v>
+      </c>
+      <c r="F21" s="10">
+        <v>1.39</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <v>5000118203534</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="C22" s="7">
+        <v>1</v>
+      </c>
+      <c r="D22" s="10">
+        <v>15.69</v>
+      </c>
+      <c r="F22" s="10">
+        <v>1.39</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
+        <v>8714100438480</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C23" s="7">
+        <v>1</v>
+      </c>
+      <c r="D23" s="10">
+        <v>15.69</v>
+      </c>
+      <c r="F23" s="10">
+        <v>1.39</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <v>5601286290786</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="C24" s="7">
+        <v>1</v>
+      </c>
+      <c r="D24" s="10">
+        <v>20.49</v>
+      </c>
+      <c r="F24" s="10">
+        <v>1.39</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
+        <v>5601286231772</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C25" s="7">
+        <v>1</v>
+      </c>
+      <c r="D25" s="10">
+        <v>23.59</v>
+      </c>
+      <c r="F25" s="10">
+        <v>0.89</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
+        <v>5601286235770</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1</v>
+      </c>
+      <c r="D26" s="10">
+        <v>31.69</v>
+      </c>
+      <c r="F26" s="10">
+        <v>0.99</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>46</v>
+      <c r="A28" s="5" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
+        <v>5010067347180</v>
+      </c>
+      <c r="B29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" s="9">
+        <v>26.49</v>
+      </c>
+      <c r="F29" s="9">
+        <v>6.69</v>
+      </c>
+      <c r="G29" t="s">
+        <v>34</v>
+      </c>
+      <c r="H29" t="s">
+        <v>35</v>
+      </c>
+      <c r="I29" t="s">
+        <v>15</v>
+      </c>
+      <c r="J29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>5010067333107</v>
+      </c>
+      <c r="B30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" s="9">
+        <v>11.19</v>
+      </c>
+      <c r="F30" s="9">
+        <v>1.19</v>
+      </c>
+      <c r="G30" t="s">
+        <v>34</v>
+      </c>
+      <c r="H30" t="s">
+        <v>37</v>
+      </c>
+      <c r="I30" t="s">
+        <v>15</v>
+      </c>
+      <c r="J30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>5010067330199</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31" s="9">
+        <v>17.190000000000001</v>
+      </c>
+      <c r="F31" s="9">
+        <v>1.19</v>
+      </c>
+      <c r="G31" t="s">
+        <v>34</v>
+      </c>
+      <c r="H31" t="s">
+        <v>40</v>
+      </c>
+      <c r="I31" t="s">
+        <v>15</v>
+      </c>
+      <c r="J31" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="6">
+        <v>5010651051219</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="C32" s="7">
+        <v>1</v>
+      </c>
+      <c r="D32" s="10">
+        <v>11.79</v>
+      </c>
+      <c r="F32" s="10">
+        <v>1.19</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="6">
+        <v>5010651041333</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="C33" s="7">
+        <v>1</v>
+      </c>
+      <c r="D33" s="10">
+        <v>19.59</v>
+      </c>
+      <c r="F33" s="10">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="6">
+        <v>5010651051318</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="C34" s="7">
+        <v>1</v>
+      </c>
+      <c r="D34" s="10">
+        <v>9.7899999999999991</v>
+      </c>
+      <c r="F34" s="10">
+        <v>0.99</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="6">
+        <v>5010067330199</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="C35" s="7">
+        <v>1</v>
+      </c>
+      <c r="D35" s="10">
+        <v>17.190000000000001</v>
+      </c>
+      <c r="F35" s="10">
+        <v>1.19</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="6">
+        <v>5010115013234</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="C36" s="7">
+        <v>1</v>
+      </c>
+      <c r="D36" s="10">
+        <v>15.79</v>
+      </c>
+      <c r="F36" s="10">
+        <v>2.69</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="6">
+        <v>70177814281</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="C37" s="7">
+        <v>1</v>
+      </c>
+      <c r="D37" s="10">
+        <v>5.69</v>
+      </c>
+      <c r="F37" s="10">
+        <v>5.69</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="6">
+        <v>5010115027156</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C38" s="7">
+        <v>1</v>
+      </c>
+      <c r="D38" s="10">
+        <v>16.09</v>
+      </c>
+      <c r="F38" s="10">
+        <v>1.69</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="6">
+        <v>5010115027163</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="C39" s="7">
+        <v>1</v>
+      </c>
+      <c r="D39" s="10">
+        <v>8.09</v>
+      </c>
+      <c r="F39" s="10">
+        <v>0.89</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="6">
+        <v>5010115107902</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="C40" s="7">
+        <v>1</v>
+      </c>
+      <c r="D40" s="10">
+        <v>6.59</v>
+      </c>
+      <c r="F40" s="10">
+        <v>6.59</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="6">
+        <v>5011417753460</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C41" s="7">
+        <v>1</v>
+      </c>
+      <c r="D41" s="10">
+        <v>12.69</v>
+      </c>
+      <c r="F41" s="10">
+        <v>2.19</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="6">
+        <v>6940152200986</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="C42" s="7">
+        <v>1</v>
+      </c>
+      <c r="D42" s="10">
+        <v>69.989999999999995</v>
+      </c>
+      <c r="F42" s="10">
+        <v>1.39</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="I42" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="12"/>
+      <c r="D43" s="14"/>
+      <c r="F43" s="14"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>5020387002584</v>
+      </c>
+      <c r="B45" t="s">
+        <v>42</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45" s="9">
+        <v>19.59</v>
+      </c>
+      <c r="F45" s="9">
+        <v>19.59</v>
+      </c>
+      <c r="H45" t="s">
+        <v>43</v>
+      </c>
+      <c r="I45" t="s">
+        <v>15</v>
+      </c>
+      <c r="J45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="6">
+        <v>5601043111019</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C46" s="7">
+        <v>1</v>
+      </c>
+      <c r="D46" s="10">
+        <v>14.39</v>
+      </c>
+      <c r="F46" s="10">
+        <v>1.49</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I46" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="6">
+        <v>5019124941101</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C47" s="7">
+        <v>1</v>
+      </c>
+      <c r="D47" s="10">
+        <v>8.69</v>
+      </c>
+      <c r="F47" s="10">
+        <v>1.49</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="I47" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <v>5060154037494</v>
+      </c>
+      <c r="B50" t="s">
+        <v>48</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50" s="9">
+        <v>19.59</v>
+      </c>
+      <c r="F50" s="9">
+        <v>3.29</v>
+      </c>
+      <c r="G50" t="s">
+        <v>49</v>
+      </c>
+      <c r="H50" t="s">
+        <v>50</v>
+      </c>
+      <c r="I50" t="s">
+        <v>15</v>
+      </c>
+      <c r="J50" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>5020933013071</v>
+      </c>
+      <c r="B51" t="s">
+        <v>52</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+      <c r="D51" s="9">
+        <v>13.79</v>
+      </c>
+      <c r="F51" s="9">
+        <v>3.49</v>
+      </c>
+      <c r="H51" t="s">
+        <v>35</v>
+      </c>
+      <c r="J51" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>5013803105556</v>
+      </c>
+      <c r="B54" t="s">
+        <v>54</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54" s="9">
+        <v>42.59</v>
+      </c>
+      <c r="F54" s="9">
+        <v>7.09</v>
+      </c>
+      <c r="G54" t="s">
+        <v>55</v>
+      </c>
+      <c r="H54" t="s">
+        <v>46</v>
+      </c>
+      <c r="I54" t="s">
+        <v>15</v>
+      </c>
+      <c r="J54" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>5013803101169</v>
+      </c>
+      <c r="B55" t="s">
+        <v>56</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55" s="9">
+        <v>87.69</v>
+      </c>
+      <c r="F55" s="9">
+        <v>14.69</v>
+      </c>
+      <c r="G55" t="s">
+        <v>55</v>
+      </c>
+      <c r="H55" t="s">
+        <v>46</v>
+      </c>
+      <c r="I55" t="s">
+        <v>15</v>
+      </c>
+      <c r="J55" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
         <v>5010398010777</v>
       </c>
-      <c r="B29" t="s">
-        <v>47</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29" s="7">
+      <c r="B58" t="s">
+        <v>45</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58" s="9">
         <v>9.59</v>
       </c>
-      <c r="F29" s="7">
+      <c r="F58" s="9">
         <v>1.59</v>
       </c>
-      <c r="H29" t="s">
-        <v>48</v>
-      </c>
-      <c r="J29" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
-        <v>5060154037494</v>
-      </c>
-      <c r="B32" t="s">
-        <v>50</v>
-      </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="D32" s="7">
-        <v>19.59</v>
-      </c>
-      <c r="F32" s="7">
-        <v>3.29</v>
-      </c>
-      <c r="G32" t="s">
-        <v>51</v>
-      </c>
-      <c r="H32" t="s">
-        <v>52</v>
-      </c>
-      <c r="I32" t="s">
-        <v>15</v>
-      </c>
-      <c r="J32" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
-        <v>5020933013071</v>
-      </c>
-      <c r="B33" t="s">
-        <v>54</v>
-      </c>
-      <c r="C33">
-        <v>2</v>
-      </c>
-      <c r="D33" s="7">
-        <v>13.79</v>
-      </c>
-      <c r="F33" s="7">
-        <v>3.49</v>
-      </c>
-      <c r="H33" t="s">
-        <v>36</v>
-      </c>
-      <c r="J33" t="s">
+      <c r="H58" t="s">
+        <v>46</v>
+      </c>
+      <c r="J58" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="6">
+        <v>5050083220722</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C59" s="7">
+        <v>1</v>
+      </c>
+      <c r="D59" s="10">
+        <v>3.79</v>
+      </c>
+      <c r="F59" s="10">
+        <v>3.79</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H59" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="I59" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="J59" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="6">
+        <v>5050083221644</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C60" s="7">
+        <v>1</v>
+      </c>
+      <c r="D60" s="10">
+        <v>4.49</v>
+      </c>
+      <c r="F60" s="10">
+        <v>4.49</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H60" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="I60" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="J60" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="6">
+        <v>5013503144909</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C61" s="7">
+        <v>1</v>
+      </c>
+      <c r="D61" s="10">
+        <v>12.29</v>
+      </c>
+      <c r="F61" s="10">
+        <v>3.09</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H61" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I61" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="J61" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="6">
+        <v>5050083392788</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C62" s="7">
+        <v>1</v>
+      </c>
+      <c r="D62" s="10">
+        <v>12.59</v>
+      </c>
+      <c r="F62" s="10">
+        <v>12.59</v>
+      </c>
+      <c r="G62" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H62" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="I62" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="J62" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="6">
+        <v>5010029219333</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C63" s="7">
+        <v>1</v>
+      </c>
+      <c r="D63" s="10">
+        <v>26.49</v>
+      </c>
+      <c r="F63" s="10">
+        <v>4.49</v>
+      </c>
+      <c r="G63" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H63" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="I63" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="J63" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="6">
+        <v>5010029226270</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64" s="7">
+        <v>1</v>
+      </c>
+      <c r="D64" s="10">
+        <v>36.79</v>
+      </c>
+      <c r="F64" s="10">
+        <v>6.19</v>
+      </c>
+      <c r="G64" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H64" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="I64" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="J64" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="6">
+        <v>5010029223286</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65" s="7">
+        <v>1</v>
+      </c>
+      <c r="D65" s="10">
+        <v>9.69</v>
+      </c>
+      <c r="F65" s="10">
+        <v>9.69</v>
+      </c>
+      <c r="G65" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H65" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="I65" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="J65" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="6">
+        <v>5010029223279</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C66" s="7">
+        <v>1</v>
+      </c>
+      <c r="D66" s="10">
+        <v>9.69</v>
+      </c>
+      <c r="F66" s="10">
+        <v>9.69</v>
+      </c>
+      <c r="G66" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H66" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="I66" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="J66" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="6">
+        <v>5050083478475</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C67" s="7">
+        <v>1</v>
+      </c>
+      <c r="D67" s="10">
+        <v>10.19</v>
+      </c>
+      <c r="F67" s="10">
+        <v>2.59</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H67" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="I67" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="J67" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="6">
+        <v>7613035710207</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C68" s="7">
+        <v>1</v>
+      </c>
+      <c r="D68" s="10">
+        <v>14.09</v>
+      </c>
+      <c r="F68" s="10">
+        <v>1.59</v>
+      </c>
+      <c r="G68" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H68" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="I68" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="J68" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="6">
+        <v>5050083394157</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C69" s="7">
+        <v>1</v>
+      </c>
+      <c r="D69" s="10">
+        <v>12.59</v>
+      </c>
+      <c r="F69" s="10">
+        <v>12.59</v>
+      </c>
+      <c r="G69" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H69" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="I69" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="J69" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="6">
+        <v>5011476100885</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C70" s="7">
+        <v>1</v>
+      </c>
+      <c r="D70" s="10">
+        <v>30.29</v>
+      </c>
+      <c r="F70" s="10">
+        <v>3.09</v>
+      </c>
+      <c r="G70" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H70" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="I70" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="J70" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="6">
+        <v>5053827185011</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C71" s="7">
+        <v>1</v>
+      </c>
+      <c r="D71" s="10">
+        <v>58.09</v>
+      </c>
+      <c r="F71" s="10">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="G71" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H71" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="I71" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="J71" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="6">
+        <v>5053827152747</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C72" s="7">
+        <v>1</v>
+      </c>
+      <c r="D72" s="10">
+        <v>12.09</v>
+      </c>
+      <c r="F72" s="10">
+        <v>3.09</v>
+      </c>
+      <c r="G72" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H72" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="I72" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="J72" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="6">
+        <v>5050083392795</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C73" s="7">
+        <v>1</v>
+      </c>
+      <c r="D73" s="10">
+        <v>14.39</v>
+      </c>
+      <c r="F73" s="10">
+        <v>14.39</v>
+      </c>
+      <c r="G73" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H73" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="I73" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="J73" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="6">
+        <v>7613036358699</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C74" s="7">
+        <v>1</v>
+      </c>
+      <c r="D74" s="10">
+        <v>26.49</v>
+      </c>
+      <c r="F74" s="10">
+        <v>3.79</v>
+      </c>
+      <c r="G74" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H74" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="I74" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="J74" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="6">
+        <v>5010893065579</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C75" s="7">
+        <v>1</v>
+      </c>
+      <c r="D75" s="10">
+        <v>12.69</v>
+      </c>
+      <c r="F75" s="10">
+        <v>1.89</v>
+      </c>
+      <c r="G75" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H75" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="J75" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="6">
+        <v>7613035710702</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C76" s="7">
+        <v>1</v>
+      </c>
+      <c r="D76" s="10">
+        <v>12.49</v>
+      </c>
+      <c r="F76" s="10">
+        <v>1.79</v>
+      </c>
+      <c r="G76" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H76" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="I76" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="J76" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="6">
+        <v>5050083478529</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C77" s="7">
+        <v>1</v>
+      </c>
+      <c r="D77" s="10">
+        <v>11.69</v>
+      </c>
+      <c r="F77" s="10">
+        <v>2.69</v>
+      </c>
+      <c r="G77" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H77" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="I77" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="J77" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="6">
+        <v>5050083478512</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C78" s="7">
+        <v>1</v>
+      </c>
+      <c r="D78" s="10">
+        <v>18.39</v>
+      </c>
+      <c r="F78" s="10">
+        <v>18.39</v>
+      </c>
+      <c r="G78" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H78" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="I78" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="J78" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="6">
+        <v>5013503018415</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C79" s="7">
+        <v>1</v>
+      </c>
+      <c r="D79" s="10">
+        <v>32.19</v>
+      </c>
+      <c r="F79" s="10">
+        <v>5.39</v>
+      </c>
+      <c r="G79" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H79" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I79" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="J79" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="6">
+        <v>5053827209212</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C80" s="7">
+        <v>1</v>
+      </c>
+      <c r="D80" s="10">
+        <v>44.89</v>
+      </c>
+      <c r="F80" s="10">
+        <v>3.79</v>
+      </c>
+      <c r="G80" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H80" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="I80" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="J80" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="6">
+        <v>5050083393709</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C81" s="7">
+        <v>1</v>
+      </c>
+      <c r="D81" s="10">
+        <v>12.69</v>
+      </c>
+      <c r="F81" s="10">
+        <v>12.69</v>
+      </c>
+      <c r="G81" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H81" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="I81" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="J81" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="6">
+        <v>5053827159869</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C82" s="7">
+        <v>1</v>
+      </c>
+      <c r="D82" s="10">
+        <v>24.19</v>
+      </c>
+      <c r="F82" s="10">
+        <v>6.09</v>
+      </c>
+      <c r="G82" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H82" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="I82" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="J82" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="6">
+        <v>5053827190299</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C83" s="7">
+        <v>1</v>
+      </c>
+      <c r="D83" s="10">
+        <v>28.29</v>
+      </c>
+      <c r="F83" s="10">
+        <v>3.59</v>
+      </c>
+      <c r="G83" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H83" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="I83" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="J83" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="6">
+        <v>5050083478505</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C84" s="7">
+        <v>1</v>
+      </c>
+      <c r="D84" s="10">
+        <v>10.69</v>
+      </c>
+      <c r="F84" s="10">
+        <v>10.69</v>
+      </c>
+      <c r="G84" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H84" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="I84" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="J84" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="6">
+        <v>5050083392870</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C85" s="7">
+        <v>1</v>
+      </c>
+      <c r="D85" s="10">
+        <v>14.39</v>
+      </c>
+      <c r="F85" s="10">
+        <v>14.39</v>
+      </c>
+      <c r="G85" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H85" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="I85" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="J85" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="6">
+        <v>5053827178556</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C86" s="7">
+        <v>1</v>
+      </c>
+      <c r="D86" s="10">
+        <v>67.39</v>
+      </c>
+      <c r="F86" s="10">
+        <v>5.69</v>
+      </c>
+      <c r="G86" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H86" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="I86" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="J86" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="6">
+        <v>5050083393853</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C87" s="7">
+        <v>1</v>
+      </c>
+      <c r="D87" s="10">
+        <v>14.39</v>
+      </c>
+      <c r="F87" s="10">
+        <v>14.39</v>
+      </c>
+      <c r="G87" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H87" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="I87" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="J87" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="6">
+        <v>5010893065609</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C88" s="7">
+        <v>1</v>
+      </c>
+      <c r="D88" s="10">
+        <v>17.29</v>
+      </c>
+      <c r="F88" s="10">
+        <v>1.79</v>
+      </c>
+      <c r="G88" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H88" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="I88" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="J88" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="6">
+        <v>5050083478567</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C89" s="7">
+        <v>1</v>
+      </c>
+      <c r="D89" s="10">
+        <v>11.49</v>
+      </c>
+      <c r="F89" s="10">
+        <v>2.89</v>
+      </c>
+      <c r="G89" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H89" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I89" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="J89" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="6">
+        <v>5050083393907</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C90" s="7">
+        <v>1</v>
+      </c>
+      <c r="D90" s="10">
+        <v>12.69</v>
+      </c>
+      <c r="F90" s="10">
+        <v>12.69</v>
+      </c>
+      <c r="G90" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H90" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="I90" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="J90" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="6">
+        <v>5053827187657</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C91" s="7">
+        <v>1</v>
+      </c>
+      <c r="D91" s="10">
+        <v>13.39</v>
+      </c>
+      <c r="F91" s="10">
+        <v>13.39</v>
+      </c>
+      <c r="G91" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H91" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="I91" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="J91" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="6">
+        <v>5900020020079</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C92" s="7">
+        <v>1</v>
+      </c>
+      <c r="D92" s="10">
+        <v>22.19</v>
+      </c>
+      <c r="F92" s="10">
+        <v>3.19</v>
+      </c>
+      <c r="G92" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H92" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="I92" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="J92" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="6">
+        <v>5050083478581</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C93" s="7">
+        <v>1</v>
+      </c>
+      <c r="D93" s="10">
+        <v>11.19</v>
+      </c>
+      <c r="F93" s="10">
+        <v>2.79</v>
+      </c>
+      <c r="G93" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H93" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="I93" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="J93" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="6">
+        <v>5050083545207</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C94" s="7">
+        <v>1</v>
+      </c>
+      <c r="D94" s="10">
+        <v>57.49</v>
+      </c>
+      <c r="F94" s="10">
+        <v>4.79</v>
+      </c>
+      <c r="G94" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H94" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="I94" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="J94" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="6">
+        <v>5050083393631</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C95" s="7">
+        <v>1</v>
+      </c>
+      <c r="D95" s="10">
+        <v>12.49</v>
+      </c>
+      <c r="F95" s="10">
+        <v>12.49</v>
+      </c>
+      <c r="G95" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H95" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="I95" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="J95" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="6">
+        <v>7613031473106</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C96" s="7">
+        <v>1</v>
+      </c>
+      <c r="D96" s="10">
+        <v>18.39</v>
+      </c>
+      <c r="F96" s="10">
+        <v>2.29</v>
+      </c>
+      <c r="G96" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H96" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="I96" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="J96" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="6">
+        <v>7613036078818</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C97" s="7">
+        <v>1</v>
+      </c>
+      <c r="D97" s="10">
+        <v>40.29</v>
+      </c>
+      <c r="F97" s="10">
+        <v>3.39</v>
+      </c>
+      <c r="G97" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H97" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="I97" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="J97" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="6">
+        <v>7613033490897</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C98" s="7">
+        <v>1</v>
+      </c>
+      <c r="D98" s="10">
+        <v>24.79</v>
+      </c>
+      <c r="F98" s="10">
+        <v>2.79</v>
+      </c>
+      <c r="G98" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H98" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="I98" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="J98" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="6">
+        <v>5053827193603</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C99" s="7">
+        <v>1</v>
+      </c>
+      <c r="D99" s="10">
+        <v>12.69</v>
+      </c>
+      <c r="F99" s="10">
+        <v>3.19</v>
+      </c>
+      <c r="G99" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H99" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="I99" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="J99" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="6">
+        <v>5053827101561</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C100" s="7">
+        <v>1</v>
+      </c>
+      <c r="D100" s="10">
+        <v>12.69</v>
+      </c>
+      <c r="F100" s="10">
+        <v>12.69</v>
+      </c>
+      <c r="G100" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H100" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="I100" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="J100" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="6">
+        <v>35060288540014</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C101" s="7">
+        <v>1</v>
+      </c>
+      <c r="D101" s="10">
+        <v>40.29</v>
+      </c>
+      <c r="F101" s="10">
+        <v>4.09</v>
+      </c>
+      <c r="H101" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="I101" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="J101" s="7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="6">
+        <v>5050083583568</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C102" s="7">
+        <v>1</v>
+      </c>
+      <c r="D102" s="10">
+        <v>15.59</v>
+      </c>
+      <c r="F102" s="10">
+        <v>2.59</v>
+      </c>
+      <c r="G102" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H102" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="I102" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="J102" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="6">
+        <v>5010029212426</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C103" s="7">
+        <v>1</v>
+      </c>
+      <c r="D103" s="10">
+        <v>33.39</v>
+      </c>
+      <c r="F103" s="10">
+        <v>5.59</v>
+      </c>
+      <c r="G103" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="H103" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="I103" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="J103" s="7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="6">
+        <v>5010029212440</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="C104" s="7">
+        <v>1</v>
+      </c>
+      <c r="D104" s="10">
+        <v>18.39</v>
+      </c>
+      <c r="F104" s="10">
+        <v>18.39</v>
+      </c>
+      <c r="G104" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="H104" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="I104" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="J104" s="7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="6">
+        <v>5010029103403</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C105" s="7">
+        <v>1</v>
+      </c>
+      <c r="D105" s="10">
+        <v>17.29</v>
+      </c>
+      <c r="F105" s="10">
+        <v>17.29</v>
+      </c>
+      <c r="G105" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="H105" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="I105" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="J105" s="7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="6">
+        <v>5020933012159</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="C106" s="7">
+        <v>1</v>
+      </c>
+      <c r="D106" s="10">
+        <v>25.29</v>
+      </c>
+      <c r="F106" s="10">
+        <v>4.29</v>
+      </c>
+      <c r="H106" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="I106" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="J106" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="6">
+        <v>5013503450024</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="C107" s="7">
+        <v>1</v>
+      </c>
+      <c r="D107" s="10">
+        <v>32.19</v>
+      </c>
+      <c r="F107" s="10">
+        <v>7.99</v>
+      </c>
+      <c r="G107" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H107" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="I107" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="J107" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="6">
+        <v>5000108003038</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="C108" s="7">
+        <v>1</v>
+      </c>
+      <c r="D108" s="10">
+        <v>15.99</v>
+      </c>
+      <c r="F108" s="10">
+        <v>4.09</v>
+      </c>
+      <c r="H108" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="I108" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="J108" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
-        <v>5013803105556</v>
-      </c>
-      <c r="B36" t="s">
-        <v>56</v>
-      </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="D36" s="7">
-        <v>42.59</v>
-      </c>
-      <c r="F36" s="7">
-        <v>7.09</v>
-      </c>
-      <c r="G36" t="s">
-        <v>57</v>
-      </c>
-      <c r="H36" t="s">
-        <v>48</v>
-      </c>
-      <c r="I36" t="s">
-        <v>15</v>
-      </c>
-      <c r="J36" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
-        <v>5013803101169</v>
-      </c>
-      <c r="B37" t="s">
-        <v>58</v>
-      </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-      <c r="D37" s="7">
-        <v>87.69</v>
-      </c>
-      <c r="F37" s="7">
-        <v>14.69</v>
-      </c>
-      <c r="G37" t="s">
-        <v>57</v>
-      </c>
-      <c r="H37" t="s">
-        <v>48</v>
-      </c>
-      <c r="I37" t="s">
-        <v>15</v>
-      </c>
-      <c r="J37" t="s">
-        <v>39</v>
+    <row r="109" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="6">
+        <v>5010029219517</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C109" s="7">
+        <v>1</v>
+      </c>
+      <c r="D109" s="10">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="F109" s="10">
+        <v>3.39</v>
+      </c>
+      <c r="G109" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="H109" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I109" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="J109" s="7" t="s">
+        <v>190</v>
       </c>
     </row>
   </sheetData>
